--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH210226_CtyThuLanViet.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH210226_CtyThuLanViet.xlsx
@@ -637,6 +637,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -665,15 +674,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1015,43 +1015,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1096,58 +1096,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1172,23 +1172,23 @@
       <c r="I5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,9 @@
       <c r="B6" s="42">
         <v>44253</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42">
+        <v>44257</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>44</v>
       </c>
@@ -1244,7 +1246,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1275,7 +1277,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1304,7 +1306,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1333,7 +1335,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1362,7 +1364,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1391,7 +1393,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1420,7 +1422,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1451,7 +1453,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1480,7 +1482,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1509,7 +1511,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1538,7 +1540,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2769,11 +2771,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2787,6 +2784,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2830,41 +2832,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -2909,58 +2911,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -2985,23 +2987,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3027,7 +3029,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3058,7 +3060,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3087,7 +3089,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3116,7 +3118,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3145,7 +3147,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3174,7 +3176,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3203,7 +3205,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3234,7 +3236,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3263,7 +3265,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3292,7 +3294,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3321,7 +3323,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4552,6 +4554,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4563,13 +4572,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4613,41 +4615,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4692,58 +4694,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -4768,23 +4770,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4810,7 +4812,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4841,7 +4843,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4870,7 +4872,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4899,7 +4901,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4928,7 +4930,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4957,7 +4959,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4986,7 +4988,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5017,7 +5019,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5046,7 +5048,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5075,7 +5077,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5104,7 +5106,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6335,13 +6337,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6353,6 +6348,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6396,41 +6398,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6475,58 +6477,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -6551,23 +6553,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6593,7 +6595,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6624,7 +6626,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6653,7 +6655,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6682,7 +6684,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6711,7 +6713,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6740,7 +6742,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6769,7 +6771,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6800,7 +6802,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6829,7 +6831,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6858,7 +6860,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6887,7 +6889,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8118,6 +8120,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8129,13 +8138,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
